--- a/IO_sample1.xlsx
+++ b/IO_sample1.xlsx
@@ -24,12 +24,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -47,139 +48,20 @@
       <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -187,23 +69,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -227,57 +94,6 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -285,45 +101,28 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000EE"/>
+      <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFB3B3B3"/>
@@ -335,7 +134,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -351,7 +150,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -373,7 +172,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -401,6 +200,7 @@
           </c:marker>
           <c:dLbls>
             <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -413,7 +213,7 @@
               <c:f>Sheet1!$C$1:$C$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -667,19 +467,19 @@
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.2</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.2</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.4</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>1</c:v>
@@ -706,12 +506,6 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="99">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -719,17 +513,17 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="54880913"/>
-        <c:axId val="94691607"/>
+        <c:axId val="20534329"/>
+        <c:axId val="91042993"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="54880913"/>
+        <c:axId val="20534329"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -751,12 +545,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94691607"/>
+        <c:crossAx val="91042993"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="94691607"/>
+        <c:axId val="91042993"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -771,7 +565,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -793,7 +587,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54880913"/>
+        <c:crossAx val="20534329"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -852,9 +646,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>610920</xdr:colOff>
+      <xdr:colOff>610560</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>175320</xdr:rowOff>
+      <xdr:rowOff>174960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -863,7 +657,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7755840" y="97200"/>
-        <a:ext cx="5754960" cy="3232800"/>
+        <a:ext cx="5754600" cy="3232440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -883,8 +677,8 @@
   </sheetPr>
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E94" activeCellId="0" sqref="E94"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1508,7 +1302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
         <v>1</v>
       </c>
@@ -1522,7 +1316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
         <v>1</v>
       </c>

--- a/IO_sample1.xlsx
+++ b/IO_sample1.xlsx
@@ -24,7 +24,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -46,11 +46,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -109,565 +104,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFB3B3B3"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF004586"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:scatterChart>
-        <c:scatterStyle val="line"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$1:$C$100</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="98"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="20534329"/>
-        <c:axId val="91042993"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="20534329"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="91042993"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="91042993"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="20534329"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="span"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>167760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>97200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>610560</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>174960</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="7755840" y="97200"/>
-        <a:ext cx="5754600" cy="3232440"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -678,7 +115,7 @@
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -694,7 +131,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E1" s="0" t="n">
         <v>1</v>
@@ -708,10 +145,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -722,10 +159,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -736,10 +173,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -750,10 +187,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -764,10 +201,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -778,10 +215,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -792,10 +229,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -806,10 +243,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -820,10 +257,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -834,10 +271,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -848,10 +285,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -862,10 +299,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -876,10 +313,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -890,10 +327,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -904,10 +341,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -918,10 +355,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -932,10 +369,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -946,10 +383,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -960,10 +397,10 @@
         <v>1</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -974,10 +411,10 @@
         <v>1</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -988,10 +425,10 @@
         <v>1</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1002,10 +439,10 @@
         <v>1</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1016,10 +453,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1030,10 +467,10 @@
         <v>1</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1044,10 +481,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1058,10 +495,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1072,10 +509,10 @@
         <v>1</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1086,10 +523,10 @@
         <v>1</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1100,10 +537,10 @@
         <v>1</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1114,10 +551,10 @@
         <v>1</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1128,10 +565,10 @@
         <v>1</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1142,10 +579,10 @@
         <v>1</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1156,10 +593,10 @@
         <v>1</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1170,10 +607,10 @@
         <v>1</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1184,10 +621,10 @@
         <v>1</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1198,10 +635,10 @@
         <v>1</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1212,7 +649,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>4</v>
@@ -1226,7 +663,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>4</v>
@@ -1240,7 +677,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="E40" s="0" t="n">
         <v>4</v>
@@ -1254,7 +691,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E41" s="0" t="n">
         <v>4</v>
@@ -1268,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>4</v>
@@ -1394,7 +831,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E51" s="0" t="n">
         <v>4</v>
@@ -1408,7 +845,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="E52" s="0" t="n">
         <v>4</v>
@@ -1422,10 +859,10 @@
         <v>1</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1436,10 +873,10 @@
         <v>1</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1450,10 +887,10 @@
         <v>1</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1464,10 +901,10 @@
         <v>1</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1478,10 +915,10 @@
         <v>1</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1492,10 +929,10 @@
         <v>1</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1506,10 +943,10 @@
         <v>1</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1520,10 +957,10 @@
         <v>1</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1534,10 +971,10 @@
         <v>1</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1548,10 +985,10 @@
         <v>1</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1562,10 +999,10 @@
         <v>1</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1576,10 +1013,10 @@
         <v>1</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1590,10 +1027,10 @@
         <v>1</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1604,10 +1041,10 @@
         <v>1</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1618,10 +1055,10 @@
         <v>1</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1632,10 +1069,10 @@
         <v>1</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1646,10 +1083,10 @@
         <v>1</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1660,10 +1097,10 @@
         <v>1</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1674,10 +1111,10 @@
         <v>1</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1688,10 +1125,10 @@
         <v>1</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1702,10 +1139,10 @@
         <v>1</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1716,10 +1153,10 @@
         <v>1</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1730,10 +1167,10 @@
         <v>1</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1744,10 +1181,10 @@
         <v>1</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1758,10 +1195,10 @@
         <v>1</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1772,10 +1209,10 @@
         <v>1</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1786,10 +1223,10 @@
         <v>1</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1800,10 +1237,10 @@
         <v>1</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1814,10 +1251,10 @@
         <v>1</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1828,10 +1265,10 @@
         <v>1</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1842,10 +1279,10 @@
         <v>1</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1856,10 +1293,10 @@
         <v>1</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1870,10 +1307,10 @@
         <v>1</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1884,10 +1321,10 @@
         <v>1</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1898,10 +1335,10 @@
         <v>1</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1912,10 +1349,10 @@
         <v>1</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1926,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E89" s="0" t="n">
         <v>1</v>
@@ -2094,6 +1531,5 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>